--- a/Temp_staat_hotel_2023.xlsx
+++ b/Temp_staat_hotel_2023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,19 +458,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="C2" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D2" t="n">
         <v>101</v>
       </c>
       <c r="E2" t="n">
-        <v>11.1</v>
+        <v>11.4</v>
       </c>
       <c r="F2" t="n">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
       <c r="G2" t="n">
         <v>201</v>
@@ -479,34 +479,34 @@
         <v>11.7</v>
       </c>
       <c r="I2" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="J2" t="n">
         <v>401</v>
       </c>
       <c r="K2" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="L2" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="M2" t="n">
         <v>501</v>
       </c>
       <c r="N2" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="O2" t="n">
-        <v>13.4</v>
+        <v>13.8</v>
       </c>
       <c r="P2" t="n">
         <v>601</v>
       </c>
       <c r="Q2" t="n">
-        <v>11.1</v>
+        <v>11.5</v>
       </c>
       <c r="R2" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -514,28 +514,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="C3" t="n">
-        <v>13.9</v>
+        <v>13.4</v>
       </c>
       <c r="D3" t="n">
         <v>102</v>
       </c>
       <c r="E3" t="n">
-        <v>11.1</v>
+        <v>11.5</v>
       </c>
       <c r="F3" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="G3" t="n">
         <v>202</v>
       </c>
       <c r="H3" t="n">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="I3" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="J3" t="n">
         <v>402</v>
@@ -544,25 +544,25 @@
         <v>11.2</v>
       </c>
       <c r="L3" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="M3" t="n">
         <v>502</v>
       </c>
       <c r="N3" t="n">
-        <v>11.1</v>
+        <v>11.9</v>
       </c>
       <c r="O3" t="n">
-        <v>13.7</v>
+        <v>13.4</v>
       </c>
       <c r="P3" t="n">
         <v>602</v>
       </c>
       <c r="Q3" t="n">
-        <v>11.2</v>
+        <v>11.7</v>
       </c>
       <c r="R3" t="n">
-        <v>13.9</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="4">
@@ -570,7 +570,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.5</v>
+        <v>11.1</v>
       </c>
       <c r="C4" t="n">
         <v>13.8</v>
@@ -579,7 +579,7 @@
         <v>103</v>
       </c>
       <c r="E4" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="F4" t="n">
         <v>13.8</v>
@@ -588,28 +588,28 @@
         <v>203</v>
       </c>
       <c r="H4" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="I4" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="J4" t="n">
         <v>403</v>
       </c>
       <c r="K4" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="L4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="M4" t="n">
         <v>503</v>
       </c>
       <c r="N4" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="O4" t="n">
-        <v>13.8</v>
+        <v>13.3</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -620,7 +620,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="C5" t="n">
         <v>13.4</v>
@@ -629,7 +629,7 @@
         <v>104</v>
       </c>
       <c r="E5" t="n">
-        <v>11.9</v>
+        <v>11.1</v>
       </c>
       <c r="F5" t="n">
         <v>13.8</v>
@@ -638,37 +638,37 @@
         <v>204</v>
       </c>
       <c r="H5" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="I5" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="J5" t="n">
         <v>404</v>
       </c>
       <c r="K5" t="n">
-        <v>11.1</v>
+        <v>11.5</v>
       </c>
       <c r="L5" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="M5" t="n">
         <v>504</v>
       </c>
       <c r="N5" t="n">
-        <v>11.9</v>
+        <v>11.3</v>
       </c>
       <c r="O5" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="P5" t="n">
         <v>604</v>
       </c>
       <c r="Q5" t="n">
-        <v>11.1</v>
+        <v>11.7</v>
       </c>
       <c r="R5" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="6">
@@ -676,7 +676,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.2</v>
+        <v>11.6</v>
       </c>
       <c r="C6" t="n">
         <v>13.5</v>
@@ -685,46 +685,46 @@
         <v>105</v>
       </c>
       <c r="E6" t="n">
-        <v>11.5</v>
+        <v>11.1</v>
       </c>
       <c r="F6" t="n">
-        <v>13.6</v>
+        <v>14</v>
       </c>
       <c r="G6" t="n">
         <v>205</v>
       </c>
       <c r="H6" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="I6" t="n">
-        <v>13.7</v>
+        <v>14</v>
       </c>
       <c r="J6" t="n">
         <v>405</v>
       </c>
       <c r="K6" t="n">
-        <v>11.3</v>
+        <v>11.7</v>
       </c>
       <c r="L6" t="n">
-        <v>13.3</v>
+        <v>13.7</v>
       </c>
       <c r="M6" t="n">
         <v>505</v>
       </c>
       <c r="N6" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="O6" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="P6" t="n">
         <v>605</v>
       </c>
       <c r="Q6" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="R6" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="7">
@@ -732,10 +732,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.8</v>
+        <v>11.1</v>
       </c>
       <c r="C7" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D7" t="n">
         <v>106</v>
@@ -750,37 +750,37 @@
         <v>206</v>
       </c>
       <c r="H7" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="I7" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="J7" t="n">
         <v>406</v>
       </c>
       <c r="K7" t="n">
-        <v>12</v>
+        <v>11.1</v>
       </c>
       <c r="L7" t="n">
-        <v>13.7</v>
+        <v>13.3</v>
       </c>
       <c r="M7" t="n">
         <v>506</v>
       </c>
       <c r="N7" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="O7" t="n">
-        <v>13.4</v>
+        <v>13.8</v>
       </c>
       <c r="P7" t="n">
         <v>606</v>
       </c>
       <c r="Q7" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="R7" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="8">
@@ -788,10 +788,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.2</v>
+        <v>11.9</v>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="D8" t="n">
         <v>107</v>
@@ -800,16 +800,16 @@
         <v>11.1</v>
       </c>
       <c r="F8" t="n">
-        <v>13.8</v>
+        <v>13.4</v>
       </c>
       <c r="G8" t="n">
         <v>207</v>
       </c>
       <c r="H8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="I8" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="J8" t="n">
         <v>407</v>
@@ -824,19 +824,19 @@
         <v>507</v>
       </c>
       <c r="N8" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="O8" t="n">
-        <v>13.6</v>
+        <v>14</v>
       </c>
       <c r="P8" t="n">
         <v>607</v>
       </c>
       <c r="Q8" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="R8" t="n">
-        <v>13.4</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="9">
@@ -844,16 +844,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.1</v>
+        <v>11.7</v>
       </c>
       <c r="C9" t="n">
-        <v>13.4</v>
+        <v>13.8</v>
       </c>
       <c r="D9" t="n">
         <v>108</v>
       </c>
       <c r="E9" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F9" t="n">
         <v>13.7</v>
@@ -862,7 +862,7 @@
         <v>208</v>
       </c>
       <c r="H9" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="I9" t="n">
         <v>13.3</v>
@@ -871,28 +871,28 @@
         <v>408</v>
       </c>
       <c r="K9" t="n">
-        <v>11.2</v>
+        <v>11.8</v>
       </c>
       <c r="L9" t="n">
-        <v>13.3</v>
+        <v>13.9</v>
       </c>
       <c r="M9" t="n">
         <v>508</v>
       </c>
       <c r="N9" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="O9" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="P9" t="n">
         <v>608</v>
       </c>
       <c r="Q9" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="R9" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="10">
@@ -900,46 +900,46 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="C10" t="n">
-        <v>13.8</v>
+        <v>13.3</v>
       </c>
       <c r="D10" t="n">
         <v>109</v>
       </c>
       <c r="E10" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="F10" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="G10" t="n">
         <v>209</v>
       </c>
       <c r="H10" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="I10" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="J10" t="n">
         <v>409</v>
       </c>
       <c r="K10" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="L10" t="n">
-        <v>13.4</v>
+        <v>13.7</v>
       </c>
       <c r="M10" t="n">
         <v>509</v>
       </c>
       <c r="N10" t="n">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="O10" t="n">
-        <v>13.4</v>
+        <v>13.9</v>
       </c>
       <c r="P10" t="n">
         <v>609</v>
@@ -948,7 +948,7 @@
         <v>11.7</v>
       </c>
       <c r="R10" t="n">
-        <v>14</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="11">
@@ -956,55 +956,55 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.8</v>
+        <v>11.4</v>
       </c>
       <c r="C11" t="n">
-        <v>13.4</v>
+        <v>13.9</v>
       </c>
       <c r="D11" t="n">
         <v>110</v>
       </c>
       <c r="E11" t="n">
-        <v>11.1</v>
+        <v>11.6</v>
       </c>
       <c r="F11" t="n">
-        <v>13.9</v>
+        <v>13.4</v>
       </c>
       <c r="G11" t="n">
         <v>210</v>
       </c>
       <c r="H11" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="I11" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="J11" t="n">
         <v>410</v>
       </c>
       <c r="K11" t="n">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="L11" t="n">
-        <v>13.4</v>
+        <v>13.9</v>
       </c>
       <c r="M11" t="n">
         <v>510</v>
       </c>
       <c r="N11" t="n">
-        <v>11.8</v>
+        <v>11.1</v>
       </c>
       <c r="O11" t="n">
-        <v>13.4</v>
+        <v>13.9</v>
       </c>
       <c r="P11" t="n">
         <v>610</v>
       </c>
       <c r="Q11" t="n">
-        <v>11.2</v>
+        <v>11.9</v>
       </c>
       <c r="R11" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="12">
@@ -1012,7 +1012,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="C12" t="n">
         <v>13.8</v>
@@ -1021,10 +1021,10 @@
         <v>111</v>
       </c>
       <c r="E12" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="F12" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="G12" t="n">
         <v>211</v>
@@ -1033,34 +1033,34 @@
         <v>11.8</v>
       </c>
       <c r="I12" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="J12" t="n">
         <v>411</v>
       </c>
       <c r="K12" t="n">
-        <v>11.7</v>
+        <v>11.1</v>
       </c>
       <c r="L12" t="n">
-        <v>13.7</v>
+        <v>14</v>
       </c>
       <c r="M12" t="n">
         <v>511</v>
       </c>
       <c r="N12" t="n">
-        <v>11.1</v>
+        <v>12</v>
       </c>
       <c r="O12" t="n">
-        <v>13.7</v>
+        <v>13.3</v>
       </c>
       <c r="P12" t="n">
         <v>611</v>
       </c>
       <c r="Q12" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="R12" t="n">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="13">
@@ -1068,55 +1068,55 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="C13" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="D13" t="n">
         <v>112</v>
       </c>
       <c r="E13" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="F13" t="n">
-        <v>13.7</v>
+        <v>14</v>
       </c>
       <c r="G13" t="n">
         <v>212</v>
       </c>
       <c r="H13" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="I13" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="J13" t="n">
         <v>412</v>
       </c>
       <c r="K13" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="L13" t="n">
-        <v>13.7</v>
+        <v>13.3</v>
       </c>
       <c r="M13" t="n">
         <v>512</v>
       </c>
       <c r="N13" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="O13" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="P13" t="n">
         <v>612</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="R13" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="14">
@@ -1144,55 +1144,55 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="C15" t="n">
-        <v>13.9</v>
+        <v>13.5</v>
       </c>
       <c r="D15" t="n">
         <v>114</v>
       </c>
       <c r="E15" t="n">
-        <v>11.1</v>
+        <v>11.5</v>
       </c>
       <c r="F15" t="n">
-        <v>13.2</v>
+        <v>14</v>
       </c>
       <c r="G15" t="n">
         <v>214</v>
       </c>
       <c r="H15" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="I15" t="n">
-        <v>13.4</v>
+        <v>13.9</v>
       </c>
       <c r="J15" t="n">
         <v>414</v>
       </c>
       <c r="K15" t="n">
-        <v>11.1</v>
+        <v>11.8</v>
       </c>
       <c r="L15" t="n">
-        <v>13.4</v>
+        <v>13.9</v>
       </c>
       <c r="M15" t="n">
         <v>514</v>
       </c>
       <c r="N15" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="O15" t="n">
-        <v>13.5</v>
+        <v>13.9</v>
       </c>
       <c r="P15" t="n">
         <v>614</v>
       </c>
       <c r="Q15" t="n">
-        <v>11.2</v>
+        <v>11.8</v>
       </c>
       <c r="R15" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="16">
@@ -1200,16 +1200,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12</v>
+        <v>11.1</v>
       </c>
       <c r="C16" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="D16" t="n">
         <v>115</v>
       </c>
       <c r="E16" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F16" t="n">
         <v>13.5</v>
@@ -1218,37 +1218,37 @@
         <v>215</v>
       </c>
       <c r="H16" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="I16" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="J16" t="n">
         <v>415</v>
       </c>
       <c r="K16" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="L16" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="M16" t="n">
         <v>515</v>
       </c>
       <c r="N16" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="O16" t="n">
-        <v>13.7</v>
+        <v>13.4</v>
       </c>
       <c r="P16" t="n">
         <v>615</v>
       </c>
       <c r="Q16" t="n">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="R16" t="n">
-        <v>13.7</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="17">
@@ -1256,10 +1256,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>11.5</v>
+        <v>11.9</v>
       </c>
       <c r="C17" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="D17" t="n">
         <v>116</v>
@@ -1268,16 +1268,16 @@
         <v>11.7</v>
       </c>
       <c r="F17" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="G17" t="n">
         <v>216</v>
       </c>
       <c r="H17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I17" t="n">
-        <v>13.3</v>
+        <v>13.9</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1286,19 +1286,19 @@
         <v>516</v>
       </c>
       <c r="N17" t="n">
-        <v>11.1</v>
+        <v>11.6</v>
       </c>
       <c r="O17" t="n">
-        <v>13.4</v>
+        <v>13.8</v>
       </c>
       <c r="P17" t="n">
         <v>616</v>
       </c>
       <c r="Q17" t="n">
-        <v>11.2</v>
+        <v>11.6</v>
       </c>
       <c r="R17" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="18">
@@ -1306,7 +1306,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="C18" t="n">
         <v>13.4</v>
@@ -1315,19 +1315,19 @@
         <v>117</v>
       </c>
       <c r="E18" t="n">
-        <v>11.2</v>
+        <v>11.7</v>
       </c>
       <c r="F18" t="n">
-        <v>13.8</v>
+        <v>13.3</v>
       </c>
       <c r="G18" t="n">
         <v>217</v>
       </c>
       <c r="H18" t="n">
-        <v>11.2</v>
+        <v>11.8</v>
       </c>
       <c r="I18" t="n">
-        <v>13.3</v>
+        <v>14</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1336,19 +1336,19 @@
         <v>517</v>
       </c>
       <c r="N18" t="n">
-        <v>11.2</v>
+        <v>11.9</v>
       </c>
       <c r="O18" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="P18" t="n">
         <v>617</v>
       </c>
       <c r="Q18" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="R18" t="n">
-        <v>13.4</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="19">
@@ -1356,25 +1356,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="C19" t="n">
-        <v>13.9</v>
+        <v>13.3</v>
       </c>
       <c r="D19" t="n">
         <v>118</v>
       </c>
       <c r="E19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" t="n">
-        <v>13.3</v>
+        <v>13.9</v>
       </c>
       <c r="G19" t="n">
         <v>218</v>
       </c>
       <c r="H19" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="I19" t="n">
         <v>13.9</v>
@@ -1394,25 +1394,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>11.2</v>
+        <v>11.9</v>
       </c>
       <c r="C20" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="D20" t="n">
         <v>119</v>
       </c>
       <c r="E20" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="F20" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="G20" t="n">
         <v>219</v>
       </c>
       <c r="H20" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="I20" t="n">
         <v>13.8</v>
@@ -1441,7 +1441,7 @@
         <v>120</v>
       </c>
       <c r="E21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="n">
         <v>13.8</v>
@@ -1450,10 +1450,10 @@
         <v>220</v>
       </c>
       <c r="H21" t="n">
-        <v>11.3</v>
+        <v>11.7</v>
       </c>
       <c r="I21" t="n">
-        <v>13.5</v>
+        <v>13.2</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1473,25 +1473,25 @@
         <v>11.4</v>
       </c>
       <c r="C22" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="D22" t="n">
         <v>121</v>
       </c>
       <c r="E22" t="n">
-        <v>12</v>
+        <v>11.2</v>
       </c>
       <c r="F22" t="n">
-        <v>14</v>
+        <v>13.4</v>
       </c>
       <c r="G22" t="n">
         <v>221</v>
       </c>
       <c r="H22" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="I22" t="n">
-        <v>13.3</v>
+        <v>13.7</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1508,16 +1508,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
       <c r="C23" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="D23" t="n">
         <v>122</v>
       </c>
       <c r="E23" t="n">
-        <v>11.3</v>
+        <v>11.7</v>
       </c>
       <c r="F23" t="n">
         <v>13.7</v>
@@ -1526,10 +1526,10 @@
         <v>222</v>
       </c>
       <c r="H23" t="n">
-        <v>11.7</v>
+        <v>11</v>
       </c>
       <c r="I23" t="n">
-        <v>13.7</v>
+        <v>13.3</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1546,16 +1546,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24" t="n">
-        <v>13.5</v>
+        <v>13.8</v>
       </c>
       <c r="D24" t="n">
         <v>123</v>
       </c>
       <c r="E24" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="F24" t="n">
         <v>13.4</v>
@@ -1564,10 +1564,10 @@
         <v>223</v>
       </c>
       <c r="H24" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="I24" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1587,7 +1587,7 @@
         <v>124</v>
       </c>
       <c r="E25" t="n">
-        <v>11.2</v>
+        <v>11.8</v>
       </c>
       <c r="F25" t="n">
         <v>13.3</v>
@@ -1596,10 +1596,10 @@
         <v>224</v>
       </c>
       <c r="H25" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="I25" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1619,16 +1619,16 @@
         <v>125</v>
       </c>
       <c r="E26" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="F26" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="G26" t="n">
         <v>225</v>
       </c>
       <c r="H26" t="n">
-        <v>12</v>
+        <v>11.2</v>
       </c>
       <c r="I26" t="n">
         <v>13.3</v>
